--- a/assets/files/excel/34819.xlsx
+++ b/assets/files/excel/34819.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookPassword="EE34" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="J6iboynMe0Ld+SyDol5KreM8BTkDwKm5+t0S5bCG/Rs2IBTz5Yg55zBjGGP/2/D5GghCCxLMRTg1heHZwfFPvQ==" workbookSaltValue="rpZEGU/4PHOgwgADz5lfkA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -700,6 +700,13 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,13 +762,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,49 +1130,49 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="46" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="62"/>
+      <c r="D7" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="47"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -1205,10 +1205,10 @@
       <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="62"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
@@ -1220,10 +1220,12 @@
         <f>B8/B47</f>
         <v>7665.2826572979884</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="54">
+        <v>-65393</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
@@ -1233,21 +1235,21 @@
         <v>0.09</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="47"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
@@ -1518,19 +1520,19 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="47"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="50"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
         <v>11</v>
       </c>
@@ -1563,22 +1565,22 @@
       <c r="B47" s="19">
         <v>31.31</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="65" t="s">
+      <c r="E47" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="65" t="s">
+      <c r="F47" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="65" t="s">
+      <c r="G47" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="66" t="s">
+      <c r="H47" s="48" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1941,7 +1943,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F49" sqref="F49:F71"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,7 +1970,7 @@
       </c>
       <c r="C1" s="14" t="str">
         <f>IF('Валютный кредит (решение)'!F12="верно","решена","не решена")</f>
-        <v>не решена</v>
+        <v>решена</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1983,46 +1985,46 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="62"/>
+      <c r="D7" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="47"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -2064,10 +2066,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="62"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
@@ -2079,16 +2081,16 @@
         <f>B8/B47</f>
         <v>7665.2826572979884</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="65">
         <f>E8-E10</f>
         <v>-65393.077291600173</v>
       </c>
       <c r="F12" s="14" t="str">
-        <f>IFERROR(IF(ABS('Валютный кредит'!E12:E13)=ABS('Валютный кредит (решение)'!E12:E13),"верно","не верно"),"не верно")</f>
-        <v>не верно</v>
+        <f>IFERROR(IF(ABS('Валютный кредит'!E12:E13-'Валютный кредит (решение)'!E12:E13)&lt;1,"верно","не верно"),"не верно")</f>
+        <v>верно</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2099,21 +2101,21 @@
         <v>0.09</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="47"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
@@ -2744,19 +2746,19 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="47"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="50"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
         <v>11</v>
       </c>
